--- a/MortalityTable.xlsx
+++ b/MortalityTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0086b8bf7c13e09c/Python4Actuaries/CodeBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{63F50F21-74EB-454E-8779-5110E7C09676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE8A3D6B-414C-45A8-BFBC-4524E8C4BECF}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{63F50F21-74EB-454E-8779-5110E7C09676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99AC611-9933-4B8E-80C4-05131D39C883}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="-270" windowWidth="38565" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23100" yWindow="2925" windowWidth="24030" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Qx" sheetId="1" r:id="rId1"/>
@@ -2496,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817C1890-88A2-439E-AEA6-81429338B544}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3635,7 +3635,7 @@
         <v>0.93655999999999995</v>
       </c>
       <c r="C103">
-        <v>1.0064599999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3643,10 +3643,10 @@
         <v>208</v>
       </c>
       <c r="B104">
-        <v>1.1453</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>1.2042999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3654,10 +3654,10 @@
         <v>210</v>
       </c>
       <c r="B105">
-        <v>1.48282</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>1.5198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3665,10 +3665,10 @@
         <v>212</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
